--- a/static/2023-WAFCC-conversion.xlsx
+++ b/static/2023-WAFCC-conversion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alansoetikno/Desktop/01. 2020 Northwestern Med/16. Streamlit Dashboard/fcc-dashboard/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6EC273B-55E2-B141-AC37-CA5631B7F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DE0D78-4D7E-994C-852C-C7331FF597F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9180" yWindow="500" windowWidth="21060" windowHeight="16620" xr2:uid="{051512B1-C347-9240-B20F-E834614C58C7}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   <dimension ref="A1:G1030"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
